--- a/biology/Botanique/Hydrophyllum_occidentale/Hydrophyllum_occidentale.xlsx
+++ b/biology/Botanique/Hydrophyllum_occidentale/Hydrophyllum_occidentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrophyllum occidentale est une espèce de plantes de la famille des Hydrophyllaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1871, Sereno Watson (1826-1892) décrit la variété Hydrophyllum macrophyllum var. occidentale.
-En 1875, Asa Gray (1810-1888) crée l'espèce Hydrophyllum occidentale et range le taxon décrit par Watson sous la variété Hydrophyllum occidentale var. watsonii. Il décrit parallèlement la variété Hydrophyllum occidentale var. fendleri[3].
+En 1875, Asa Gray (1810-1888) crée l'espèce Hydrophyllum occidentale et range le taxon décrit par Watson sous la variété Hydrophyllum occidentale var. watsonii. Il décrit parallèlement la variété Hydrophyllum occidentale var. fendleri.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (4 juin 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (4 juin 2022) :
 variété Hydrophyllum occidentale var. fendleri A. Gray
 variété Hydrophyllum occidentale var. watsonii A. Gray</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sereno Watson, « Botany », Report U.S. geological exploration of the fortieth parallel, Washington, vol. 5,‎ 1871, p. 1-525.
 (en) Asa Gray, « A Conspectus of the North American Hydrophyllaceæ », Proceedings of the American Academy of Arts and Sciences, Boston, Inconnu, vol. 10,‎ 5 mars 1875, p. 312-332 (ISSN 0199-9818 et 2327-9478, OCLC 1479254, DOI 10.2307/20021420, JSTOR 20021420, lire en ligne)</t>
